--- a/OranegeHRM-Manual/Orange HRM.xlsx
+++ b/OranegeHRM-Manual/Orange HRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danabadarneh/Desktop/Orange hrm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danabadarneh/Desktop/Orange hrm/OranegeHRM-Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9749F8-55C2-7349-94E4-515A6B95D026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3B9D72-725A-704F-9F33-B68EF89B9B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{98833991-DA56-264C-8939-4E0B76A61A43}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15340" xr2:uid="{98833991-DA56-264C-8939-4E0B76A61A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>TC_ID</t>
   </si>
@@ -284,6 +284,57 @@
   </si>
   <si>
     <t>1.“Navigate to the next page, which displays the message: ‘Reset Password link sent successfully.’</t>
+  </si>
+  <si>
+    <t>Verify password is masked</t>
+  </si>
+  <si>
+    <t>1.Open the OrangeHRM login page.</t>
+  </si>
+  <si>
+    <t>2.Enter any value in the Password field</t>
+  </si>
+  <si>
+    <t>3.Observe how the characters are displayed</t>
+  </si>
+  <si>
+    <t>The characters should appear as dots or asterisks (e.g., ●●●●●●).</t>
+  </si>
+  <si>
+    <t>Verify data persistence after page refresh</t>
+  </si>
+  <si>
+    <t>1.Enter a valid username in the Username field</t>
+  </si>
+  <si>
+    <t>2.Enter a valid password in the Password field.</t>
+  </si>
+  <si>
+    <t>3.Refresh the page (F5 or browser refresh).</t>
+  </si>
+  <si>
+    <t>1.The Username field should be empty.</t>
+  </si>
+  <si>
+    <t>2.The Password field should be empty.</t>
+  </si>
+  <si>
+    <t>3.No previously entered data should be saved.</t>
+  </si>
+  <si>
+    <t>Verify OrangeHRM Logo is visible</t>
+  </si>
+  <si>
+    <t>1.Open the OrangeHRM login page</t>
+  </si>
+  <si>
+    <t>2.Observe the main logo at the top of the page</t>
+  </si>
+  <si>
+    <t>OrangeHRM logo is visible and displayed correctly.</t>
+  </si>
+  <si>
+    <t>TC_0003</t>
   </si>
 </sst>
 </file>
@@ -730,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -743,131 +794,143 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD80C6AF-5605-7A48-83EB-909D2075A45C}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:Q47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,100 +1334,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="37"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -1439,55 +1502,55 @@
       <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="41" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1495,1155 +1558,1387 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="18" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="19" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="20" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="19" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="17" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="23"/>
+      <c r="K18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17" t="s">
+      <c r="J21" s="16"/>
+      <c r="K21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="19" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18" t="s">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="18" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17" t="s">
+      <c r="J24" s="16"/>
+      <c r="K24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="19" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="17" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17" t="s">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="19" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18" t="s">
+      <c r="J28" s="23"/>
+      <c r="K28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="17" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17" t="s">
+      <c r="J30" s="23"/>
+      <c r="K30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="19" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="22" t="s">
+      <c r="J31" s="23"/>
+      <c r="K31" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="17" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
       <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="17" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17" t="s">
+      <c r="J33" s="23"/>
+      <c r="K33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="19" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="17" t="s">
+      <c r="H34" s="53"/>
+      <c r="I34" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="20" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
       <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="19" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="21" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="17" t="s">
+      <c r="H37" s="53"/>
+      <c r="I37" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18" t="s">
+      <c r="J37" s="23"/>
+      <c r="K37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
       <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="17" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
       <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="17" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="19" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="53"/>
+      <c r="I40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="54"/>
+      <c r="K43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="54"/>
+      <c r="K44" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45" s="54"/>
+      <c r="K45" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="53"/>
+      <c r="I46" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" s="54"/>
+      <c r="K46" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="16" t="s">
+      <c r="F49" s="18"/>
+      <c r="G49" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="18" t="s">
+      <c r="H49" s="52"/>
+      <c r="I49" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18" t="s">
+      <c r="J49" s="16"/>
+      <c r="K49" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="18" t="s">
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18" t="s">
+      <c r="J50" s="16"/>
+      <c r="K50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="17" t="s">
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18" t="s">
+      <c r="H51" s="23"/>
+      <c r="I51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18" t="s">
+      <c r="J51" s="16"/>
+      <c r="K51" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="19" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="16" t="s">
+      <c r="F52" s="18"/>
+      <c r="G52" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="18" t="s">
+      <c r="H52" s="52"/>
+      <c r="I52" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="20" t="s">
+      <c r="J52" s="16"/>
+      <c r="K52" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="18" t="s">
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="17" t="s">
+      <c r="J53" s="16"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18" t="s">
+      <c r="H54" s="23"/>
+      <c r="I54" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18" t="s">
+      <c r="J54" s="16"/>
+      <c r="K54" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="19" t="s">
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="V54" s="2"/>
+    </row>
+    <row r="55" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20" t="s">
+      <c r="F55" s="18"/>
+      <c r="G55" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="18" t="s">
+      <c r="H55" s="50"/>
+      <c r="I55" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="20" t="s">
+      <c r="J55" s="16"/>
+      <c r="K55" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="18" t="s">
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="V55" s="2"/>
+    </row>
+    <row r="56" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20" t="s">
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="V56" s="2"/>
+    </row>
+    <row r="57" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="18" t="s">
+      <c r="H57" s="50"/>
+      <c r="I57" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18" t="s">
+      <c r="J57" s="16"/>
+      <c r="K57" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="19" t="s">
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20" t="s">
+      <c r="F58" s="18"/>
+      <c r="G58" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="18" t="s">
+      <c r="H58" s="50"/>
+      <c r="I58" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="20" t="s">
+      <c r="J58" s="16"/>
+      <c r="K58" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="18" t="s">
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20" t="s">
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="18" t="s">
+      <c r="H60" s="50"/>
+      <c r="I60" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="17" t="s">
+      <c r="J60" s="16"/>
+      <c r="K60" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="V56" s="2"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="A61" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
       <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
       <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
       <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
       <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
       <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
       <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
       <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
       <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
       <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
       <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
       <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
       <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
       <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
       <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
       <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
@@ -2682,80 +2977,135 @@
       <c r="A85" s="1"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="5"/>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="V87" s="2"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="V89" s="2"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="V90" s="2"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="V91" s="2"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="V92" s="2"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="V93" s="2"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="V94" s="2"/>
+    </row>
+    <row r="95" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="C43:D51"/>
-    <mergeCell ref="A43:B51"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E10:F12"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="K10:Q11"/>
-    <mergeCell ref="K8:Q9"/>
-    <mergeCell ref="A1:V4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="C10:D42"/>
-    <mergeCell ref="A10:B42"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K19:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K12:Q13"/>
-    <mergeCell ref="K14:Q15"/>
-    <mergeCell ref="E16:F18"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K16:Q17"/>
-    <mergeCell ref="E13:F15"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="E25:F27"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K25:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="E22:F24"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="I22:J22"/>
+  <mergeCells count="134">
+    <mergeCell ref="A61:B76"/>
+    <mergeCell ref="C61:D76"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K55:Q56"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:H42"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K40:Q42"/>
+    <mergeCell ref="E43:F45"/>
+    <mergeCell ref="G43:H45"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="E58:F60"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K58:Q59"/>
+    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="E52:F54"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K52:Q53"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K38:Q39"/>
+    <mergeCell ref="E49:F51"/>
+    <mergeCell ref="G49:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="E37:F39"/>
+    <mergeCell ref="G37:H39"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E34:F36"/>
+    <mergeCell ref="G34:H36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="E46:F48"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J48"/>
+    <mergeCell ref="G46:H48"/>
+    <mergeCell ref="K46:Q48"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K22:Q23"/>
@@ -2775,52 +3125,54 @@
     <mergeCell ref="G28:H30"/>
     <mergeCell ref="K28:Q29"/>
     <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="E43:F45"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K38:Q39"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="E37:F39"/>
-    <mergeCell ref="G37:H39"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E34:F36"/>
-    <mergeCell ref="G34:H36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K46:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="E49:F51"/>
-    <mergeCell ref="G49:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K49:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K43:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="E46:F48"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A1:V4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="C10:D51"/>
+    <mergeCell ref="A10:B51"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K19:Q20"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K12:Q13"/>
+    <mergeCell ref="K14:Q15"/>
+    <mergeCell ref="E16:F18"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K16:Q17"/>
+    <mergeCell ref="C52:D60"/>
+    <mergeCell ref="A52:B60"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E10:F12"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="K10:Q11"/>
+    <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E25:F27"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K25:Q26"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="E22:F24"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
